--- a/data/pca/factorExposure/factorExposure_2015-12-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01766672719106054</v>
+        <v>0.01710527840477279</v>
       </c>
       <c r="C2">
-        <v>0.03343366394050425</v>
+        <v>-0.03404240944683468</v>
       </c>
       <c r="D2">
-        <v>-0.09495622825204104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1211813126969494</v>
+      </c>
+      <c r="E2">
+        <v>0.06038779234171011</v>
+      </c>
+      <c r="F2">
+        <v>-0.02227856224851491</v>
+      </c>
+      <c r="G2">
+        <v>0.05344885198488197</v>
+      </c>
+      <c r="H2">
+        <v>-0.0961398783845894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01926353802995414</v>
+        <v>0.01126431927092211</v>
       </c>
       <c r="C3">
-        <v>0.05440906723663135</v>
+        <v>-0.03625837890068826</v>
       </c>
       <c r="D3">
-        <v>-0.1381435807021684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08118416526909254</v>
+      </c>
+      <c r="E3">
+        <v>0.06185458721830828</v>
+      </c>
+      <c r="F3">
+        <v>-0.03201394315457505</v>
+      </c>
+      <c r="G3">
+        <v>0.08292631450297061</v>
+      </c>
+      <c r="H3">
+        <v>-0.04025582889715327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04974111095015506</v>
+        <v>0.05437414529017674</v>
       </c>
       <c r="C4">
-        <v>0.03856211345558062</v>
+        <v>-0.06402340133974506</v>
       </c>
       <c r="D4">
-        <v>-0.1262667951777109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1409187423648859</v>
+      </c>
+      <c r="E4">
+        <v>0.04720443476942043</v>
+      </c>
+      <c r="F4">
+        <v>-0.02139534794291348</v>
+      </c>
+      <c r="G4">
+        <v>-0.02742122768124828</v>
+      </c>
+      <c r="H4">
+        <v>0.03496019748752862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04303184463604513</v>
+        <v>0.04007390678476185</v>
       </c>
       <c r="C6">
-        <v>0.006503431294687448</v>
+        <v>-0.02616078886557558</v>
       </c>
       <c r="D6">
-        <v>-0.134682169268844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1321260067619195</v>
+      </c>
+      <c r="E6">
+        <v>0.02535791843274637</v>
+      </c>
+      <c r="F6">
+        <v>-0.01497321405878964</v>
+      </c>
+      <c r="G6">
+        <v>0.01036456542948359</v>
+      </c>
+      <c r="H6">
+        <v>-0.01192772047315736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02242694738848963</v>
+        <v>0.01566174499746992</v>
       </c>
       <c r="C7">
-        <v>0.01488990834176561</v>
+        <v>-0.02998274237562751</v>
       </c>
       <c r="D7">
-        <v>-0.09465055119596355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09420155968714225</v>
+      </c>
+      <c r="E7">
+        <v>0.02698042131979114</v>
+      </c>
+      <c r="F7">
+        <v>-0.01734612988820751</v>
+      </c>
+      <c r="G7">
+        <v>-0.02323065247110363</v>
+      </c>
+      <c r="H7">
+        <v>-0.1028658897203562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008910285348057831</v>
+        <v>0.007329429723181615</v>
       </c>
       <c r="C8">
-        <v>0.03004112142516197</v>
+        <v>-0.03844615415452356</v>
       </c>
       <c r="D8">
-        <v>-0.05979858629726972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07587378860454047</v>
+      </c>
+      <c r="E8">
+        <v>0.03557057876980104</v>
+      </c>
+      <c r="F8">
+        <v>-0.0404107371168377</v>
+      </c>
+      <c r="G8">
+        <v>0.006063999089442884</v>
+      </c>
+      <c r="H8">
+        <v>-0.0423029534374889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04125003497279432</v>
+        <v>0.04180451495952368</v>
       </c>
       <c r="C9">
-        <v>0.03941574348593489</v>
+        <v>-0.05962769572107007</v>
       </c>
       <c r="D9">
-        <v>-0.1102216135963463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1182828441964599</v>
+      </c>
+      <c r="E9">
+        <v>0.03375161951669498</v>
+      </c>
+      <c r="F9">
+        <v>-0.00377043696606308</v>
+      </c>
+      <c r="G9">
+        <v>-0.02294470209766396</v>
+      </c>
+      <c r="H9">
+        <v>-0.001644626381720202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09448847982873142</v>
+        <v>0.1363418642167217</v>
       </c>
       <c r="C10">
-        <v>-0.1961573048962755</v>
+        <v>0.1890296890174997</v>
       </c>
       <c r="D10">
-        <v>-0.002851278403063138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002031563904353386</v>
+      </c>
+      <c r="E10">
+        <v>0.04736190421841433</v>
+      </c>
+      <c r="F10">
+        <v>-0.02055977528354969</v>
+      </c>
+      <c r="G10">
+        <v>-0.04084125892467488</v>
+      </c>
+      <c r="H10">
+        <v>0.005219562141922147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03495579103990978</v>
+        <v>0.02880400449696859</v>
       </c>
       <c r="C11">
-        <v>0.03917509987965457</v>
+        <v>-0.04353942379887675</v>
       </c>
       <c r="D11">
-        <v>-0.05989031672793274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05753783003333735</v>
+      </c>
+      <c r="E11">
+        <v>-0.005279097981883477</v>
+      </c>
+      <c r="F11">
+        <v>-0.002078054714299329</v>
+      </c>
+      <c r="G11">
+        <v>-0.005966570280146165</v>
+      </c>
+      <c r="H11">
+        <v>-0.04551622832708837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03955069566637724</v>
+        <v>0.03384040955456244</v>
       </c>
       <c r="C12">
-        <v>0.04170367403620372</v>
+        <v>-0.04597867705443331</v>
       </c>
       <c r="D12">
-        <v>-0.06113136969419514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0568155614512349</v>
+      </c>
+      <c r="E12">
+        <v>0.002301680577100031</v>
+      </c>
+      <c r="F12">
+        <v>0.003955843718829326</v>
+      </c>
+      <c r="G12">
+        <v>-0.01178311327786171</v>
+      </c>
+      <c r="H12">
+        <v>-0.0585652736391792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01578228162040222</v>
+        <v>0.01926794334057702</v>
       </c>
       <c r="C13">
-        <v>0.02758718997244608</v>
+        <v>-0.03885548012011687</v>
       </c>
       <c r="D13">
-        <v>-0.1312660431265512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1486705010135382</v>
+      </c>
+      <c r="E13">
+        <v>0.04952371910060286</v>
+      </c>
+      <c r="F13">
+        <v>-0.02970842958300766</v>
+      </c>
+      <c r="G13">
+        <v>-0.003345264343497259</v>
+      </c>
+      <c r="H13">
+        <v>-0.09493807298533101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01084085329031286</v>
+        <v>0.007343502558678755</v>
       </c>
       <c r="C14">
-        <v>0.02179895609140912</v>
+        <v>-0.02523480842338003</v>
       </c>
       <c r="D14">
-        <v>-0.08225646674055723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08479126185687091</v>
+      </c>
+      <c r="E14">
+        <v>0.03103099846023851</v>
+      </c>
+      <c r="F14">
+        <v>0.00679247939002374</v>
+      </c>
+      <c r="G14">
+        <v>-0.004921748859138641</v>
+      </c>
+      <c r="H14">
+        <v>-0.09538437583482315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001308801569173828</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009652801248260061</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0298695111694437</v>
+      </c>
+      <c r="E15">
+        <v>0.004979855749247602</v>
+      </c>
+      <c r="F15">
+        <v>0.001578747521511269</v>
+      </c>
+      <c r="G15">
+        <v>0.007151311405929011</v>
+      </c>
+      <c r="H15">
+        <v>-0.01079499028881225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0367853938191499</v>
+        <v>0.0297587395109204</v>
       </c>
       <c r="C16">
-        <v>0.04112344146833197</v>
+        <v>-0.04404464435372962</v>
       </c>
       <c r="D16">
-        <v>-0.06984487309032333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06186346102904845</v>
+      </c>
+      <c r="E16">
+        <v>0.008488702798878084</v>
+      </c>
+      <c r="F16">
+        <v>0.007066866385181181</v>
+      </c>
+      <c r="G16">
+        <v>-0.001971619703249607</v>
+      </c>
+      <c r="H16">
+        <v>-0.05410596341675211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007232391120623624</v>
+        <v>0.008634277484144177</v>
       </c>
       <c r="C19">
-        <v>0.02215986026287767</v>
+        <v>-0.0222874340546784</v>
       </c>
       <c r="D19">
-        <v>-0.1654053734497472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1295655469562273</v>
+      </c>
+      <c r="E19">
+        <v>0.0657541339434457</v>
+      </c>
+      <c r="F19">
+        <v>0.01403982929749614</v>
+      </c>
+      <c r="G19">
+        <v>0.01394567733191825</v>
+      </c>
+      <c r="H19">
+        <v>-0.0633232031045578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02047917914067049</v>
+        <v>0.01597861924852889</v>
       </c>
       <c r="C20">
-        <v>0.02163424191504361</v>
+        <v>-0.03238791569294775</v>
       </c>
       <c r="D20">
-        <v>-0.08953542558521806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09809945088474666</v>
+      </c>
+      <c r="E20">
+        <v>0.0504450939063014</v>
+      </c>
+      <c r="F20">
+        <v>0.001941471658100029</v>
+      </c>
+      <c r="G20">
+        <v>-0.006891607876068238</v>
+      </c>
+      <c r="H20">
+        <v>-0.05456504715640498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0105495266804505</v>
+        <v>0.01402757864956037</v>
       </c>
       <c r="C21">
-        <v>0.02702995172521402</v>
+        <v>-0.03796990036057987</v>
       </c>
       <c r="D21">
-        <v>-0.1265390405191487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.141174223191961</v>
+      </c>
+      <c r="E21">
+        <v>0.08553508081631817</v>
+      </c>
+      <c r="F21">
+        <v>0.0008108554838565342</v>
+      </c>
+      <c r="G21">
+        <v>-0.04452143114161009</v>
+      </c>
+      <c r="H21">
+        <v>-0.1066759461486766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005244925311448578</v>
+        <v>0.005611143263865178</v>
       </c>
       <c r="C22">
-        <v>0.02729498455613867</v>
+        <v>-0.03950649435131073</v>
       </c>
       <c r="D22">
-        <v>-0.07895646104938077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1354137533250822</v>
+      </c>
+      <c r="E22">
+        <v>0.02022596046638099</v>
+      </c>
+      <c r="F22">
+        <v>-0.0887310542662469</v>
+      </c>
+      <c r="G22">
+        <v>0.07034339759960666</v>
+      </c>
+      <c r="H22">
+        <v>0.0354065161449638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005302535592625915</v>
+        <v>0.005710772141501935</v>
       </c>
       <c r="C23">
-        <v>0.02722313921818315</v>
+        <v>-0.03995207251528709</v>
       </c>
       <c r="D23">
-        <v>-0.07834924408104817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1348556118503287</v>
+      </c>
+      <c r="E23">
+        <v>0.02048662496779894</v>
+      </c>
+      <c r="F23">
+        <v>-0.08869462275598358</v>
+      </c>
+      <c r="G23">
+        <v>0.06945466573823297</v>
+      </c>
+      <c r="H23">
+        <v>0.03575422773125016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03540450989864481</v>
+        <v>0.0310929603178645</v>
       </c>
       <c r="C24">
-        <v>0.04579525640798204</v>
+        <v>-0.05486542561043104</v>
       </c>
       <c r="D24">
-        <v>-0.06809838704496571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06497909944481541</v>
+      </c>
+      <c r="E24">
+        <v>0.01049001026791658</v>
+      </c>
+      <c r="F24">
+        <v>0.004257959881745867</v>
+      </c>
+      <c r="G24">
+        <v>-0.01540140574780479</v>
+      </c>
+      <c r="H24">
+        <v>-0.06411313204625571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04197639233476973</v>
+        <v>0.03618177630968637</v>
       </c>
       <c r="C25">
-        <v>0.04857845276754005</v>
+        <v>-0.05313855319076153</v>
       </c>
       <c r="D25">
-        <v>-0.06936372945966539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0623838635470064</v>
+      </c>
+      <c r="E25">
+        <v>0.01072180120821502</v>
+      </c>
+      <c r="F25">
+        <v>-0.002167768372385015</v>
+      </c>
+      <c r="G25">
+        <v>-0.01918834065574984</v>
+      </c>
+      <c r="H25">
+        <v>-0.05187646140582901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02007486590427699</v>
+        <v>0.01780662176662784</v>
       </c>
       <c r="C26">
-        <v>0.00740359679623282</v>
+        <v>-0.01849322646211462</v>
       </c>
       <c r="D26">
-        <v>-0.05028949090548978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06182606606399163</v>
+      </c>
+      <c r="E26">
+        <v>0.02615004359946821</v>
+      </c>
+      <c r="F26">
+        <v>-0.003176592118532095</v>
+      </c>
+      <c r="G26">
+        <v>-0.001884755582183671</v>
+      </c>
+      <c r="H26">
+        <v>-0.06060066907642801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1375902146972735</v>
+        <v>0.1924483704559831</v>
       </c>
       <c r="C28">
-        <v>-0.2760510292870481</v>
+        <v>0.2550387784180763</v>
       </c>
       <c r="D28">
-        <v>0.03297360757184845</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01312966708683526</v>
+      </c>
+      <c r="E28">
+        <v>0.07228022400291563</v>
+      </c>
+      <c r="F28">
+        <v>-0.007748438657487013</v>
+      </c>
+      <c r="G28">
+        <v>-0.0756126074109634</v>
+      </c>
+      <c r="H28">
+        <v>-0.004304715632569144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004790252450505656</v>
+        <v>0.006174017242925458</v>
       </c>
       <c r="C29">
-        <v>0.02095978483933009</v>
+        <v>-0.02379885772951811</v>
       </c>
       <c r="D29">
-        <v>-0.06746771137842636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08125904370413932</v>
+      </c>
+      <c r="E29">
+        <v>0.03059987350805149</v>
+      </c>
+      <c r="F29">
+        <v>-0.005496593035689334</v>
+      </c>
+      <c r="G29">
+        <v>-0.0215901351545834</v>
+      </c>
+      <c r="H29">
+        <v>-0.09708939929465402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04126429304288006</v>
+        <v>0.04249328839014382</v>
       </c>
       <c r="C30">
-        <v>0.03704370942083327</v>
+        <v>-0.05976834147216609</v>
       </c>
       <c r="D30">
-        <v>-0.163916723140184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1771633002012922</v>
+      </c>
+      <c r="E30">
+        <v>0.01393423011469508</v>
+      </c>
+      <c r="F30">
+        <v>-0.005003761087777031</v>
+      </c>
+      <c r="G30">
+        <v>0.03498287679500333</v>
+      </c>
+      <c r="H30">
+        <v>-0.003030207166398885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06630513359768764</v>
+        <v>0.05479235359201083</v>
       </c>
       <c r="C31">
-        <v>0.05295036799473612</v>
+        <v>-0.07253526416278133</v>
       </c>
       <c r="D31">
-        <v>-0.06105088708416465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0505761930677113</v>
+      </c>
+      <c r="E31">
+        <v>0.02599900664189755</v>
+      </c>
+      <c r="F31">
+        <v>-0.03795590715577462</v>
+      </c>
+      <c r="G31">
+        <v>-0.01458093831880058</v>
+      </c>
+      <c r="H31">
+        <v>-0.03593837874667635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002612400733455682</v>
+        <v>0.01124436375472467</v>
       </c>
       <c r="C32">
-        <v>0.00505319665065392</v>
+        <v>-0.01686990251603692</v>
       </c>
       <c r="D32">
-        <v>-0.05969327410849921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.097318455528675</v>
+      </c>
+      <c r="E32">
+        <v>0.08100480573687814</v>
+      </c>
+      <c r="F32">
+        <v>-0.01517833798658308</v>
+      </c>
+      <c r="G32">
+        <v>-0.05318192486615742</v>
+      </c>
+      <c r="H32">
+        <v>-0.08714937188927505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02663958455450427</v>
+        <v>0.02481811663750832</v>
       </c>
       <c r="C33">
-        <v>0.02346348090462912</v>
+        <v>-0.0419733276679581</v>
       </c>
       <c r="D33">
-        <v>-0.1346397627162108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1325314475470629</v>
+      </c>
+      <c r="E33">
+        <v>0.038196919477172</v>
+      </c>
+      <c r="F33">
+        <v>-0.01556021950249377</v>
+      </c>
+      <c r="G33">
+        <v>-0.008508745322733413</v>
+      </c>
+      <c r="H33">
+        <v>-0.06268170458194273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03352897371958538</v>
+        <v>0.02809047340507136</v>
       </c>
       <c r="C34">
-        <v>0.06202477821644893</v>
+        <v>-0.06151073272760269</v>
       </c>
       <c r="D34">
-        <v>-0.07020041419970896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05902916371597237</v>
+      </c>
+      <c r="E34">
+        <v>-0.006980059241648397</v>
+      </c>
+      <c r="F34">
+        <v>0.009591428792722184</v>
+      </c>
+      <c r="G34">
+        <v>-0.0167070449640145</v>
+      </c>
+      <c r="H34">
+        <v>-0.07219144010528773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005821672638955948</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0005933096587910828</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00394086976285522</v>
+      </c>
+      <c r="E35">
+        <v>-2.389612667709206e-05</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002938474199957754</v>
+      </c>
+      <c r="G35">
+        <v>0.0006711537800373425</v>
+      </c>
+      <c r="H35">
+        <v>-0.002596230342651238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02013806912085919</v>
+        <v>0.01835318387649717</v>
       </c>
       <c r="C36">
-        <v>0.003213715484073623</v>
+        <v>-0.01561815066800368</v>
       </c>
       <c r="D36">
-        <v>-0.0751076904180801</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07842773170865086</v>
+      </c>
+      <c r="E36">
+        <v>0.03141353617517908</v>
+      </c>
+      <c r="F36">
+        <v>0.0009874494994588443</v>
+      </c>
+      <c r="G36">
+        <v>-0.01593424203290053</v>
+      </c>
+      <c r="H36">
+        <v>-0.04987988292728066</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02714299261715155</v>
+        <v>0.02160074730634133</v>
       </c>
       <c r="C38">
-        <v>0.02040848454815954</v>
+        <v>-0.02273930637176927</v>
       </c>
       <c r="D38">
-        <v>-0.05463626644482781</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05757789541049931</v>
+      </c>
+      <c r="E38">
+        <v>0.0392892147459873</v>
+      </c>
+      <c r="F38">
+        <v>0.005130209982004078</v>
+      </c>
+      <c r="G38">
+        <v>0.03097999847025392</v>
+      </c>
+      <c r="H38">
+        <v>-0.04210267032411466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04171852429396651</v>
+        <v>0.03673838816175489</v>
       </c>
       <c r="C39">
-        <v>0.0528771499650556</v>
+        <v>-0.06439322947127117</v>
       </c>
       <c r="D39">
-        <v>-0.09239243211935894</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1044753918759186</v>
+      </c>
+      <c r="E39">
+        <v>0.005302023877683596</v>
+      </c>
+      <c r="F39">
+        <v>0.02633352822346072</v>
+      </c>
+      <c r="G39">
+        <v>-0.002449939314372965</v>
+      </c>
+      <c r="H39">
+        <v>-0.07865851976176129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01815577325300335</v>
+        <v>0.01505846459979669</v>
       </c>
       <c r="C40">
-        <v>0.0434828100940593</v>
+        <v>-0.03723225502033331</v>
       </c>
       <c r="D40">
-        <v>-0.07867235100892975</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08645891053592032</v>
+      </c>
+      <c r="E40">
+        <v>0.06292550130174265</v>
+      </c>
+      <c r="F40">
+        <v>-0.06182492566512061</v>
+      </c>
+      <c r="G40">
+        <v>0.02545897539734158</v>
+      </c>
+      <c r="H40">
+        <v>-0.1673473970059496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02462265901923317</v>
+        <v>0.02310082932912893</v>
       </c>
       <c r="C41">
-        <v>-0.007616275204644978</v>
+        <v>-0.008243532198768734</v>
       </c>
       <c r="D41">
-        <v>-0.0698138297174153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05675045137926051</v>
+      </c>
+      <c r="E41">
+        <v>0.05022938148704732</v>
+      </c>
+      <c r="F41">
+        <v>-0.003541375273340969</v>
+      </c>
+      <c r="G41">
+        <v>0.0008540012758185163</v>
+      </c>
+      <c r="H41">
+        <v>-0.04876548736603237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03383768502769592</v>
+        <v>0.02496741492977816</v>
       </c>
       <c r="C43">
-        <v>0.005042388535212773</v>
+        <v>-0.01932299653347916</v>
       </c>
       <c r="D43">
-        <v>-0.1085539622693386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08710432171603527</v>
+      </c>
+      <c r="E43">
+        <v>0.03230789159684907</v>
+      </c>
+      <c r="F43">
+        <v>-0.005225563643112025</v>
+      </c>
+      <c r="G43">
+        <v>0.003801081952189066</v>
+      </c>
+      <c r="H43">
+        <v>-0.06577648850275195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01280850027509534</v>
+        <v>0.01697775206883385</v>
       </c>
       <c r="C44">
-        <v>0.04121476982105621</v>
+        <v>-0.04108767426561127</v>
       </c>
       <c r="D44">
-        <v>-0.08848126579310121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09937997763980515</v>
+      </c>
+      <c r="E44">
+        <v>0.06698589185224635</v>
+      </c>
+      <c r="F44">
+        <v>-0.006239864713819525</v>
+      </c>
+      <c r="G44">
+        <v>-0.01693646281044064</v>
+      </c>
+      <c r="H44">
+        <v>-0.07291187625237217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02025633604619788</v>
+        <v>0.01655577415799808</v>
       </c>
       <c r="C46">
-        <v>0.02052903365851586</v>
+        <v>-0.02994495059862525</v>
       </c>
       <c r="D46">
-        <v>-0.07976760936018659</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09048676130904396</v>
+      </c>
+      <c r="E46">
+        <v>0.03666565063204072</v>
+      </c>
+      <c r="F46">
+        <v>0.0157278825891211</v>
+      </c>
+      <c r="G46">
+        <v>-0.02961974598291071</v>
+      </c>
+      <c r="H46">
+        <v>-0.09793251959966333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0953276554862076</v>
+        <v>0.08512809335911961</v>
       </c>
       <c r="C47">
-        <v>0.06870020816517548</v>
+        <v>-0.08949045469625724</v>
       </c>
       <c r="D47">
-        <v>-0.04059344270349427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03225048744748218</v>
+      </c>
+      <c r="E47">
+        <v>0.03272097182123598</v>
+      </c>
+      <c r="F47">
+        <v>-0.02374335056934626</v>
+      </c>
+      <c r="G47">
+        <v>-0.05566403302283038</v>
+      </c>
+      <c r="H47">
+        <v>-0.01600285365745605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01614005725833766</v>
+        <v>0.01618427041196618</v>
       </c>
       <c r="C48">
-        <v>0.01312686142155904</v>
+        <v>-0.02074394618910978</v>
       </c>
       <c r="D48">
-        <v>-0.06711756606445221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07476975222460586</v>
+      </c>
+      <c r="E48">
+        <v>0.04992355202588682</v>
+      </c>
+      <c r="F48">
+        <v>0.005756197706997226</v>
+      </c>
+      <c r="G48">
+        <v>-0.01428098507104065</v>
+      </c>
+      <c r="H48">
+        <v>-0.05715339563900364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07719427079277011</v>
+        <v>0.05977554673075341</v>
       </c>
       <c r="C50">
-        <v>0.06419139171993964</v>
+        <v>-0.07051802431901132</v>
       </c>
       <c r="D50">
-        <v>-0.06424652732518775</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05685860670518555</v>
+      </c>
+      <c r="E50">
+        <v>0.03940908623166165</v>
+      </c>
+      <c r="F50">
+        <v>-0.04416751619602344</v>
+      </c>
+      <c r="G50">
+        <v>0.008990893378469854</v>
+      </c>
+      <c r="H50">
+        <v>-0.04277111585772388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006788803840727484</v>
+        <v>0.006206355629809568</v>
       </c>
       <c r="C51">
-        <v>0.01498894939397787</v>
+        <v>-0.01685532358866867</v>
       </c>
       <c r="D51">
-        <v>-0.07706035034692302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08749167930478281</v>
+      </c>
+      <c r="E51">
+        <v>0.02215088114292571</v>
+      </c>
+      <c r="F51">
+        <v>-0.001558967519869956</v>
+      </c>
+      <c r="G51">
+        <v>0.002626822051931484</v>
+      </c>
+      <c r="H51">
+        <v>-0.07715505434588563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07625789826203323</v>
+        <v>0.08708374018311088</v>
       </c>
       <c r="C53">
-        <v>0.08959644915313844</v>
+        <v>-0.1006649088466781</v>
       </c>
       <c r="D53">
-        <v>-0.02286158261821803</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01017241548020487</v>
+      </c>
+      <c r="E53">
+        <v>0.09715440036819169</v>
+      </c>
+      <c r="F53">
+        <v>-0.04697286700142012</v>
+      </c>
+      <c r="G53">
+        <v>-0.09544838275130597</v>
+      </c>
+      <c r="H53">
+        <v>0.01542051381371635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03359065803962882</v>
+        <v>0.02648612827160609</v>
       </c>
       <c r="C54">
-        <v>0.03132343277040488</v>
+        <v>-0.0357638703074014</v>
       </c>
       <c r="D54">
-        <v>-0.08736459114340173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08732106627816537</v>
+      </c>
+      <c r="E54">
+        <v>0.03907743327269234</v>
+      </c>
+      <c r="F54">
+        <v>0.01428881593173082</v>
+      </c>
+      <c r="G54">
+        <v>-0.00187970366814455</v>
+      </c>
+      <c r="H54">
+        <v>-0.1120399895971168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08695184469250634</v>
+        <v>0.08424873328006346</v>
       </c>
       <c r="C55">
-        <v>0.06685078612885063</v>
+        <v>-0.08183437162514547</v>
       </c>
       <c r="D55">
-        <v>0.003623467792656533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01084856300881407</v>
+      </c>
+      <c r="E55">
+        <v>0.05954226147355861</v>
+      </c>
+      <c r="F55">
+        <v>-0.04450599288693968</v>
+      </c>
+      <c r="G55">
+        <v>-0.04241589168001911</v>
+      </c>
+      <c r="H55">
+        <v>0.01717561756829833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1354823458899837</v>
+        <v>0.1310612530767407</v>
       </c>
       <c r="C56">
-        <v>0.1009969995719209</v>
+        <v>-0.1247706148094613</v>
       </c>
       <c r="D56">
-        <v>-0.009870798664636787</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.006309563040328532</v>
+      </c>
+      <c r="E56">
+        <v>0.06157120592401389</v>
+      </c>
+      <c r="F56">
+        <v>-0.03180825713271716</v>
+      </c>
+      <c r="G56">
+        <v>-0.05922484862067088</v>
+      </c>
+      <c r="H56">
+        <v>0.008711668896598338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.02901881574102651</v>
+        <v>0.03323717404765413</v>
       </c>
       <c r="C58">
-        <v>-0.01407136097830573</v>
+        <v>-0.02584356861197295</v>
       </c>
       <c r="D58">
-        <v>-0.3879733168207589</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3903206546952011</v>
+      </c>
+      <c r="E58">
+        <v>0.2160670491403216</v>
+      </c>
+      <c r="F58">
+        <v>-0.1511708427379569</v>
+      </c>
+      <c r="G58">
+        <v>0.4013738404244164</v>
+      </c>
+      <c r="H58">
+        <v>0.3767663967130557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1367866945648871</v>
+        <v>0.1735060410188824</v>
       </c>
       <c r="C59">
-        <v>-0.1935407792040881</v>
+        <v>0.1722367368975661</v>
       </c>
       <c r="D59">
-        <v>-0.02447345318280074</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04930153745037143</v>
+      </c>
+      <c r="E59">
+        <v>0.01924484468587273</v>
+      </c>
+      <c r="F59">
+        <v>0.03967177048009458</v>
+      </c>
+      <c r="G59">
+        <v>0.001449586127308743</v>
+      </c>
+      <c r="H59">
+        <v>0.02247133047451029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2533060340635948</v>
+        <v>0.2297749345586813</v>
       </c>
       <c r="C60">
-        <v>0.05689779550650777</v>
+        <v>-0.09677786318076101</v>
       </c>
       <c r="D60">
-        <v>-0.1449744739991343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1024214406109045</v>
+      </c>
+      <c r="E60">
+        <v>-0.3719168381462266</v>
+      </c>
+      <c r="F60">
+        <v>-0.01929796522051744</v>
+      </c>
+      <c r="G60">
+        <v>-0.01827939648031986</v>
+      </c>
+      <c r="H60">
+        <v>0.09812542127374423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04726454231852103</v>
+        <v>0.04201307559613524</v>
       </c>
       <c r="C61">
-        <v>0.05205413481412352</v>
+        <v>-0.05992107782995947</v>
       </c>
       <c r="D61">
-        <v>-0.1022133708573062</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09410095119217597</v>
+      </c>
+      <c r="E61">
+        <v>0.001814146676818384</v>
+      </c>
+      <c r="F61">
+        <v>0.01661823294269818</v>
+      </c>
+      <c r="G61">
+        <v>-0.02298534693853167</v>
+      </c>
+      <c r="H61">
+        <v>-0.0741280350467781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01663269975617713</v>
+        <v>0.01502856606039931</v>
       </c>
       <c r="C63">
-        <v>0.02124978706304216</v>
+        <v>-0.03311984643098206</v>
       </c>
       <c r="D63">
-        <v>-0.06248898098606197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06991363936869475</v>
+      </c>
+      <c r="E63">
+        <v>0.02946206857997676</v>
+      </c>
+      <c r="F63">
+        <v>-0.01829594439642314</v>
+      </c>
+      <c r="G63">
+        <v>-8.405925456639461e-05</v>
+      </c>
+      <c r="H63">
+        <v>-0.0445159101107652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05869727787419158</v>
+        <v>0.05447774780517917</v>
       </c>
       <c r="C64">
-        <v>0.06288941179382956</v>
+        <v>-0.08019759608097132</v>
       </c>
       <c r="D64">
-        <v>-0.05642490827225957</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05173948066633629</v>
+      </c>
+      <c r="E64">
+        <v>0.02586493318462972</v>
+      </c>
+      <c r="F64">
+        <v>0.01604639767082248</v>
+      </c>
+      <c r="G64">
+        <v>-0.05387418985847397</v>
+      </c>
+      <c r="H64">
+        <v>-0.03983110019183145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05763105793385633</v>
+        <v>0.0501520983373106</v>
       </c>
       <c r="C65">
-        <v>0.002921980957177775</v>
+        <v>-0.02555497051780364</v>
       </c>
       <c r="D65">
-        <v>-0.1124594164343568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1172918970159221</v>
+      </c>
+      <c r="E65">
+        <v>0.0002706019541690536</v>
+      </c>
+      <c r="F65">
+        <v>-0.0143968233467432</v>
+      </c>
+      <c r="G65">
+        <v>0.03669818720052771</v>
+      </c>
+      <c r="H65">
+        <v>0.02287369000453342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04411572887984769</v>
+        <v>0.04151943546493249</v>
       </c>
       <c r="C66">
-        <v>0.05565443949359606</v>
+        <v>-0.07278946482028313</v>
       </c>
       <c r="D66">
-        <v>-0.1130392560062766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1301893630651174</v>
+      </c>
+      <c r="E66">
+        <v>0.01065320563582716</v>
+      </c>
+      <c r="F66">
+        <v>0.01035643375627097</v>
+      </c>
+      <c r="G66">
+        <v>0.005906945593077675</v>
+      </c>
+      <c r="H66">
+        <v>-0.05798690901637549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0454599427141144</v>
+        <v>0.03793173800604404</v>
       </c>
       <c r="C67">
-        <v>0.02838343542399119</v>
+        <v>-0.02891421949864223</v>
       </c>
       <c r="D67">
-        <v>-0.02551193973408859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01931399916942456</v>
+      </c>
+      <c r="E67">
+        <v>0.02042139443001419</v>
+      </c>
+      <c r="F67">
+        <v>0.0006975503298861217</v>
+      </c>
+      <c r="G67">
+        <v>0.02758046099232807</v>
+      </c>
+      <c r="H67">
+        <v>-0.04163612448975649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1650283861188888</v>
+        <v>0.1937527969677673</v>
       </c>
       <c r="C68">
-        <v>-0.2499575194040427</v>
+        <v>0.2047632620158107</v>
       </c>
       <c r="D68">
-        <v>0.01761828449036495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01236963319691593</v>
+      </c>
+      <c r="E68">
+        <v>0.04968637502019226</v>
+      </c>
+      <c r="F68">
+        <v>-0.03128098835550756</v>
+      </c>
+      <c r="G68">
+        <v>0.007150157247309221</v>
+      </c>
+      <c r="H68">
+        <v>0.004988234130211028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08464027672690855</v>
+        <v>0.07670067164805766</v>
       </c>
       <c r="C69">
-        <v>0.08155659486691889</v>
+        <v>-0.09844409651504042</v>
       </c>
       <c r="D69">
-        <v>-0.05306184609295238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04431857845212593</v>
+      </c>
+      <c r="E69">
+        <v>0.02454876203279001</v>
+      </c>
+      <c r="F69">
+        <v>-0.004280505770449564</v>
+      </c>
+      <c r="G69">
+        <v>-0.03824896762448084</v>
+      </c>
+      <c r="H69">
+        <v>-0.02773945287772471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1386992222017901</v>
+        <v>0.1784571437496202</v>
       </c>
       <c r="C71">
-        <v>-0.2457814192982867</v>
+        <v>0.2159328065237122</v>
       </c>
       <c r="D71">
-        <v>-0.01700093179447221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03545732556203873</v>
+      </c>
+      <c r="E71">
+        <v>0.05111061599751632</v>
+      </c>
+      <c r="F71">
+        <v>-0.03617026340669204</v>
+      </c>
+      <c r="G71">
+        <v>-0.03676518073677895</v>
+      </c>
+      <c r="H71">
+        <v>-0.02142723972003127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09848861400448997</v>
+        <v>0.1003508738323731</v>
       </c>
       <c r="C72">
-        <v>0.03969002739391674</v>
+        <v>-0.06785382008700375</v>
       </c>
       <c r="D72">
-        <v>-0.09221738435553443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09700449041789719</v>
+      </c>
+      <c r="E72">
+        <v>-0.03661790511396903</v>
+      </c>
+      <c r="F72">
+        <v>-0.03507913269437214</v>
+      </c>
+      <c r="G72">
+        <v>-0.02318425949595584</v>
+      </c>
+      <c r="H72">
+        <v>-0.01877140124651851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2992041438373814</v>
+        <v>0.2509462530210972</v>
       </c>
       <c r="C73">
-        <v>0.007867176337268118</v>
+        <v>-0.07778052309417807</v>
       </c>
       <c r="D73">
-        <v>-0.2457250093574937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1655265730613524</v>
+      </c>
+      <c r="E73">
+        <v>-0.6714947335325444</v>
+      </c>
+      <c r="F73">
+        <v>-0.008154863820910054</v>
+      </c>
+      <c r="G73">
+        <v>0.05160962624498414</v>
+      </c>
+      <c r="H73">
+        <v>0.1480077088040098</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1023924139156897</v>
+        <v>0.1003000169295188</v>
       </c>
       <c r="C74">
-        <v>0.06863902072479879</v>
+        <v>-0.09065426054615838</v>
       </c>
       <c r="D74">
-        <v>-0.02140064831137128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.001017952365750524</v>
+      </c>
+      <c r="E74">
+        <v>0.07994058896211936</v>
+      </c>
+      <c r="F74">
+        <v>-0.05959521483684893</v>
+      </c>
+      <c r="G74">
+        <v>-0.0600515308657034</v>
+      </c>
+      <c r="H74">
+        <v>0.04394415991214238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2400025278703414</v>
+        <v>0.2320284862216242</v>
       </c>
       <c r="C75">
-        <v>0.1274889421921955</v>
+        <v>-0.1638482034437465</v>
       </c>
       <c r="D75">
-        <v>0.0432321117712622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.08732373823446928</v>
+      </c>
+      <c r="E75">
+        <v>0.09403095246324271</v>
+      </c>
+      <c r="F75">
+        <v>-0.006293170224179994</v>
+      </c>
+      <c r="G75">
+        <v>-0.08015826724061795</v>
+      </c>
+      <c r="H75">
+        <v>0.1066452680988804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1283736125343543</v>
+        <v>0.1273993070940777</v>
       </c>
       <c r="C76">
-        <v>0.08754071637241127</v>
+        <v>-0.1144393093685538</v>
       </c>
       <c r="D76">
-        <v>-0.00491430992991705</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01201513030918798</v>
+      </c>
+      <c r="E76">
+        <v>0.1114354515764512</v>
+      </c>
+      <c r="F76">
+        <v>-0.02823328904293113</v>
+      </c>
+      <c r="G76">
+        <v>-0.06213555683637873</v>
+      </c>
+      <c r="H76">
+        <v>0.008604475145932095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.062920964662488</v>
+        <v>0.06150816440422645</v>
       </c>
       <c r="C77">
-        <v>0.0644879274859331</v>
+        <v>-0.07061577708038981</v>
       </c>
       <c r="D77">
-        <v>-0.06149902940890815</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1275832966438127</v>
+      </c>
+      <c r="E77">
+        <v>0.205176929355745</v>
+      </c>
+      <c r="F77">
+        <v>0.2335962565685994</v>
+      </c>
+      <c r="G77">
+        <v>0.1080502910050102</v>
+      </c>
+      <c r="H77">
+        <v>0.1683763340456787</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0389221651819678</v>
+        <v>0.04106605116447137</v>
       </c>
       <c r="C78">
-        <v>0.04883693861128537</v>
+        <v>-0.06254432197709731</v>
       </c>
       <c r="D78">
-        <v>-0.1088809059139035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.125082337007436</v>
+      </c>
+      <c r="E78">
+        <v>0.009722516505305962</v>
+      </c>
+      <c r="F78">
+        <v>-0.01162679451514131</v>
+      </c>
+      <c r="G78">
+        <v>-0.03154723981093036</v>
+      </c>
+      <c r="H78">
+        <v>-0.03135172998772755</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.0005343456438767559</v>
+        <v>0.04311982642693881</v>
       </c>
       <c r="C79">
-        <v>-0.0004223291822668718</v>
+        <v>-0.08620097802130158</v>
       </c>
       <c r="D79">
-        <v>-0.01794149821029027</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02475955331774126</v>
+      </c>
+      <c r="E79">
+        <v>0.1711609982807998</v>
+      </c>
+      <c r="F79">
+        <v>-0.127030177427581</v>
+      </c>
+      <c r="G79">
+        <v>-0.557969602677364</v>
+      </c>
+      <c r="H79">
+        <v>0.550379878259861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02979391489753899</v>
+        <v>0.02408612879519392</v>
       </c>
       <c r="C80">
-        <v>0.02333367105051446</v>
+        <v>-0.04006694014302861</v>
       </c>
       <c r="D80">
-        <v>-0.02251166463902008</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03126898675263639</v>
+      </c>
+      <c r="E80">
+        <v>0.01503287223994348</v>
+      </c>
+      <c r="F80">
+        <v>0.0327187578030565</v>
+      </c>
+      <c r="G80">
+        <v>0.03873027997368807</v>
+      </c>
+      <c r="H80">
+        <v>-0.02793542483136877</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1438736221411987</v>
+        <v>0.1297778215092688</v>
       </c>
       <c r="C81">
-        <v>0.09344556391984103</v>
+        <v>-0.117962912738766</v>
       </c>
       <c r="D81">
-        <v>0.04341634566646633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0622094586806823</v>
+      </c>
+      <c r="E81">
+        <v>0.1195585306001392</v>
+      </c>
+      <c r="F81">
+        <v>-0.02097020951417315</v>
+      </c>
+      <c r="G81">
+        <v>-0.05125001445013329</v>
+      </c>
+      <c r="H81">
+        <v>0.02733859795493987</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2968384982119319</v>
+        <v>0.2525293121309325</v>
       </c>
       <c r="C82">
-        <v>0.2620426466822605</v>
+        <v>-0.25155174947156</v>
       </c>
       <c r="D82">
-        <v>0.2330597707560953</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2242129385567618</v>
+      </c>
+      <c r="E82">
+        <v>-0.01109037794110298</v>
+      </c>
+      <c r="F82">
+        <v>-0.04232009482894188</v>
+      </c>
+      <c r="G82">
+        <v>-0.2369876333729122</v>
+      </c>
+      <c r="H82">
+        <v>-0.4505682078014023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02849561834338755</v>
+        <v>0.02257847182766762</v>
       </c>
       <c r="C83">
-        <v>0.04608093041594602</v>
+        <v>-0.05236823978241151</v>
       </c>
       <c r="D83">
-        <v>-0.04665319253044351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05030263735217268</v>
+      </c>
+      <c r="E83">
+        <v>0.007995867435963061</v>
+      </c>
+      <c r="F83">
+        <v>0.02125596027708973</v>
+      </c>
+      <c r="G83">
+        <v>-0.001623490591597286</v>
+      </c>
+      <c r="H83">
+        <v>-0.03093626668431483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004171466873902425</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004738872350212195</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01673086453683236</v>
+      </c>
+      <c r="E84">
+        <v>0.01432872708713022</v>
+      </c>
+      <c r="F84">
+        <v>-0.007383109139205719</v>
+      </c>
+      <c r="G84">
+        <v>0.009406799596422715</v>
+      </c>
+      <c r="H84">
+        <v>-0.001960515579433993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1826401946258692</v>
+        <v>0.161934260930638</v>
       </c>
       <c r="C85">
-        <v>0.08818935659757257</v>
+        <v>-0.131488530301106</v>
       </c>
       <c r="D85">
-        <v>0.02582765000018783</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06258911223693853</v>
+      </c>
+      <c r="E85">
+        <v>0.03523327814306076</v>
+      </c>
+      <c r="F85">
+        <v>-0.04015157934761846</v>
+      </c>
+      <c r="G85">
+        <v>-0.090990133897582</v>
+      </c>
+      <c r="H85">
+        <v>0.1139384753017021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01437418282284509</v>
+        <v>0.0190296260993034</v>
       </c>
       <c r="C86">
-        <v>0.02453989931902122</v>
+        <v>-0.02371481118149963</v>
       </c>
       <c r="D86">
-        <v>-0.1372172049236123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1263692515534146</v>
+      </c>
+      <c r="E86">
+        <v>0.01145794889071107</v>
+      </c>
+      <c r="F86">
+        <v>0.008125285439121947</v>
+      </c>
+      <c r="G86">
+        <v>-0.02349090872898378</v>
+      </c>
+      <c r="H86">
+        <v>-0.06666018337780519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02728071908161262</v>
+        <v>0.03279756699678132</v>
       </c>
       <c r="C87">
-        <v>0.003521582289341866</v>
+        <v>-0.02616649974841505</v>
       </c>
       <c r="D87">
-        <v>-0.09656164333484898</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1320623988865325</v>
+      </c>
+      <c r="E87">
+        <v>0.07964778507942229</v>
+      </c>
+      <c r="F87">
+        <v>0.008757067247002145</v>
+      </c>
+      <c r="G87">
+        <v>0.008065477182220776</v>
+      </c>
+      <c r="H87">
+        <v>-0.03267794664415736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07913073393098226</v>
+        <v>0.07121443461554446</v>
       </c>
       <c r="C88">
-        <v>0.04235859967005946</v>
+        <v>-0.0587095051413174</v>
       </c>
       <c r="D88">
-        <v>-0.03917077409463999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02146231365132188</v>
+      </c>
+      <c r="E88">
+        <v>0.02632187800350033</v>
+      </c>
+      <c r="F88">
+        <v>-0.004891603366551925</v>
+      </c>
+      <c r="G88">
+        <v>-0.002124927737734348</v>
+      </c>
+      <c r="H88">
+        <v>-0.03410420300186748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1989957507637536</v>
+        <v>0.2717191382360688</v>
       </c>
       <c r="C89">
-        <v>-0.3691066127838873</v>
+        <v>0.354524170948369</v>
       </c>
       <c r="D89">
-        <v>0.02946627408845726</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0009943604443518803</v>
+      </c>
+      <c r="E89">
+        <v>0.05890161688351931</v>
+      </c>
+      <c r="F89">
+        <v>0.05086675111831126</v>
+      </c>
+      <c r="G89">
+        <v>-0.03302024124399448</v>
+      </c>
+      <c r="H89">
+        <v>-0.05449471606207482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.199620366274733</v>
+        <v>0.2375359245288185</v>
       </c>
       <c r="C90">
-        <v>-0.2976868094056797</v>
+        <v>0.2594138675214262</v>
       </c>
       <c r="D90">
-        <v>0.03625592194033292</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01336908166274387</v>
+      </c>
+      <c r="E90">
+        <v>0.04826845692928494</v>
+      </c>
+      <c r="F90">
+        <v>-0.01225139353360593</v>
+      </c>
+      <c r="G90">
+        <v>0.03525538248619723</v>
+      </c>
+      <c r="H90">
+        <v>-0.05405062082625987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.177515632396067</v>
+        <v>0.1631552919189286</v>
       </c>
       <c r="C91">
-        <v>0.1281053069423639</v>
+        <v>-0.1566924780315694</v>
       </c>
       <c r="D91">
-        <v>0.06088978333819509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08254448071352784</v>
+      </c>
+      <c r="E91">
+        <v>0.1060969024252608</v>
+      </c>
+      <c r="F91">
+        <v>-0.03082355818708068</v>
+      </c>
+      <c r="G91">
+        <v>-0.0797326127389537</v>
+      </c>
+      <c r="H91">
+        <v>0.1095069468186355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1653101190417912</v>
+        <v>0.2161688005906246</v>
       </c>
       <c r="C92">
-        <v>-0.2895700540398706</v>
+        <v>0.2734839839452887</v>
       </c>
       <c r="D92">
-        <v>-0.007964294290032734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02776668651254369</v>
+      </c>
+      <c r="E92">
+        <v>0.09320412911086287</v>
+      </c>
+      <c r="F92">
+        <v>0.01245339686273724</v>
+      </c>
+      <c r="G92">
+        <v>0.0006462713703396641</v>
+      </c>
+      <c r="H92">
+        <v>-0.04290988754523255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2316210843316297</v>
+        <v>0.2636570135726648</v>
       </c>
       <c r="C93">
-        <v>-0.3234359952598606</v>
+        <v>0.2735620978645577</v>
       </c>
       <c r="D93">
-        <v>0.01173744685931531</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005395279248862115</v>
+      </c>
+      <c r="E93">
+        <v>0.01312744731195478</v>
+      </c>
+      <c r="F93">
+        <v>-0.02403512275279072</v>
+      </c>
+      <c r="G93">
+        <v>-0.006157327401069099</v>
+      </c>
+      <c r="H93">
+        <v>0.003032416511670866</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3981578133709565</v>
+        <v>0.3396203911820874</v>
       </c>
       <c r="C94">
-        <v>0.2368178614292051</v>
+        <v>-0.263496769080466</v>
       </c>
       <c r="D94">
-        <v>0.4654449385368741</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4427925561918215</v>
+      </c>
+      <c r="E94">
+        <v>0.1206573463563015</v>
+      </c>
+      <c r="F94">
+        <v>0.02328859532117279</v>
+      </c>
+      <c r="G94">
+        <v>0.5860087955511371</v>
+      </c>
+      <c r="H94">
+        <v>0.07179132763880658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0798992750778996</v>
+        <v>0.0692831077208048</v>
       </c>
       <c r="C95">
-        <v>0.07350024913493927</v>
+        <v>-0.06456607283756005</v>
       </c>
       <c r="D95">
-        <v>-0.1290518409054457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08690653021715626</v>
+      </c>
+      <c r="E95">
+        <v>0.01926604644751323</v>
+      </c>
+      <c r="F95">
+        <v>0.9195028467342118</v>
+      </c>
+      <c r="G95">
+        <v>-0.07257332747745082</v>
+      </c>
+      <c r="H95">
+        <v>0.08510345068696566</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1768936854401815</v>
+        <v>0.1628666714373134</v>
       </c>
       <c r="C98">
-        <v>0.01815596723296078</v>
+        <v>-0.05892210995028144</v>
       </c>
       <c r="D98">
-        <v>-0.1368350661919106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1196619973807921</v>
+      </c>
+      <c r="E98">
+        <v>-0.3147904574907508</v>
+      </c>
+      <c r="F98">
+        <v>-0.04699926813425263</v>
+      </c>
+      <c r="G98">
+        <v>-0.02833385225301013</v>
+      </c>
+      <c r="H98">
+        <v>0.04682271710757103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004637684012838933</v>
+        <v>0.006357185097917402</v>
       </c>
       <c r="C101">
-        <v>0.02032525673545084</v>
+        <v>-0.02280556053245823</v>
       </c>
       <c r="D101">
-        <v>-0.0671534303599706</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08121140621995847</v>
+      </c>
+      <c r="E101">
+        <v>0.03170911803661622</v>
+      </c>
+      <c r="F101">
+        <v>-0.004601791558715485</v>
+      </c>
+      <c r="G101">
+        <v>-0.02228974370148094</v>
+      </c>
+      <c r="H101">
+        <v>-0.09716764312745393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1241866996384399</v>
+        <v>0.1097367664498771</v>
       </c>
       <c r="C102">
-        <v>0.1157313016226114</v>
+        <v>-0.1195899021425658</v>
       </c>
       <c r="D102">
-        <v>0.03779484640735262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05234963746136977</v>
+      </c>
+      <c r="E102">
+        <v>0.03325121270840107</v>
+      </c>
+      <c r="F102">
+        <v>0.0207588504892134</v>
+      </c>
+      <c r="G102">
+        <v>-0.05617087564567962</v>
+      </c>
+      <c r="H102">
+        <v>-0.02214801456239455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
